--- a/output/ejecucion_1/gridsearch_results/base0/b0_ci_results_gs_xgb_st.xlsx
+++ b/output/ejecucion_1/gridsearch_results/base0/b0_ci_results_gs_xgb_st.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>138.7566645622254</v>
+        <v>143.1815683841705</v>
       </c>
       <c r="C2">
-        <v>0.9386123608207179</v>
+        <v>5.57714750025493</v>
       </c>
       <c r="D2">
-        <v>1.138426208496094</v>
+        <v>1.162337875366211</v>
       </c>
       <c r="E2">
-        <v>0.03983118148414214</v>
+        <v>0.04271121853809919</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -558,25 +558,25 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>0.806949806949807</v>
+        <v>0.7952755905511811</v>
       </c>
       <c r="K2">
-        <v>0.7915057915057915</v>
+        <v>0.8464566929133859</v>
       </c>
       <c r="L2">
-        <v>0.8255813953488372</v>
+        <v>0.8228346456692913</v>
       </c>
       <c r="M2">
-        <v>0.810077519379845</v>
+        <v>0.8346456692913385</v>
       </c>
       <c r="N2">
-        <v>0.7790697674418605</v>
+        <v>0.7755905511811023</v>
       </c>
       <c r="O2">
-        <v>0.8026368561252284</v>
+        <v>0.8149606299212598</v>
       </c>
       <c r="P2">
-        <v>0.01599828217803002</v>
+        <v>0.02599617955782549</v>
       </c>
       <c r="Q2">
         <v>16</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>268.8041145801544</v>
+        <v>270.0153860569</v>
       </c>
       <c r="C3">
-        <v>1.116421766730093</v>
+        <v>5.346840583006435</v>
       </c>
       <c r="D3">
-        <v>1.283607053756714</v>
+        <v>1.171755170822144</v>
       </c>
       <c r="E3">
-        <v>0.1498085656734806</v>
+        <v>0.04762653462771568</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -611,28 +611,28 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>0.8223938223938224</v>
+        <v>0.8149606299212598</v>
       </c>
       <c r="K3">
-        <v>0.803088803088803</v>
+        <v>0.8385826771653543</v>
       </c>
       <c r="L3">
-        <v>0.8410852713178295</v>
+        <v>0.8228346456692913</v>
       </c>
       <c r="M3">
-        <v>0.8217054263565892</v>
+        <v>0.8267716535433071</v>
       </c>
       <c r="N3">
-        <v>0.7868217054263565</v>
+        <v>0.7755905511811023</v>
       </c>
       <c r="O3">
-        <v>0.8150190057166802</v>
+        <v>0.815748031496063</v>
       </c>
       <c r="P3">
-        <v>0.01852546260037686</v>
+        <v>0.02147745149131631</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>539.0464318752289</v>
+        <v>538.855818605423</v>
       </c>
       <c r="C4">
-        <v>2.289319850422648</v>
+        <v>10.94244667588663</v>
       </c>
       <c r="D4">
-        <v>1.200271224975586</v>
+        <v>1.206359958648682</v>
       </c>
       <c r="E4">
-        <v>0.2252254738727244</v>
+        <v>0.1892113397118193</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -664,28 +664,28 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>0.7992277992277992</v>
+        <v>0.8188976377952756</v>
       </c>
       <c r="K4">
-        <v>0.806949806949807</v>
+        <v>0.8307086614173228</v>
       </c>
       <c r="L4">
-        <v>0.8372093023255814</v>
+        <v>0.8346456692913385</v>
       </c>
       <c r="M4">
-        <v>0.8294573643410853</v>
+        <v>0.8267716535433071</v>
       </c>
       <c r="N4">
-        <v>0.7790697674418605</v>
+        <v>0.7913385826771654</v>
       </c>
       <c r="O4">
-        <v>0.8103828080572267</v>
+        <v>0.8204724409448818</v>
       </c>
       <c r="P4">
-        <v>0.02097725302952645</v>
+        <v>0.01546998638140824</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>138.3696637630463</v>
+        <v>141.9142072677612</v>
       </c>
       <c r="C5">
-        <v>1.183537625325877</v>
+        <v>5.153004492691359</v>
       </c>
       <c r="D5">
-        <v>1.223040103912354</v>
+        <v>1.223719120025635</v>
       </c>
       <c r="E5">
-        <v>0.1266394334466529</v>
+        <v>0.153930343354775</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -717,25 +717,25 @@
         <v>19</v>
       </c>
       <c r="J5">
-        <v>0.806949806949807</v>
+        <v>0.7952755905511811</v>
       </c>
       <c r="K5">
-        <v>0.7915057915057915</v>
+        <v>0.8464566929133859</v>
       </c>
       <c r="L5">
-        <v>0.8255813953488372</v>
+        <v>0.8228346456692913</v>
       </c>
       <c r="M5">
-        <v>0.810077519379845</v>
+        <v>0.8346456692913385</v>
       </c>
       <c r="N5">
-        <v>0.7790697674418605</v>
+        <v>0.7755905511811023</v>
       </c>
       <c r="O5">
-        <v>0.8026368561252284</v>
+        <v>0.8149606299212598</v>
       </c>
       <c r="P5">
-        <v>0.01599828217803002</v>
+        <v>0.02599617955782549</v>
       </c>
       <c r="Q5">
         <v>16</v>
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>276.4276525974274</v>
+        <v>275.1049558639526</v>
       </c>
       <c r="C6">
-        <v>1.600149580929855</v>
+        <v>8.74616561472202</v>
       </c>
       <c r="D6">
-        <v>1.312840032577515</v>
+        <v>1.100037002563476</v>
       </c>
       <c r="E6">
-        <v>0.1562013658642043</v>
+        <v>0.04678648042954307</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -770,28 +770,28 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>0.8223938223938224</v>
+        <v>0.8149606299212598</v>
       </c>
       <c r="K6">
-        <v>0.803088803088803</v>
+        <v>0.8385826771653543</v>
       </c>
       <c r="L6">
-        <v>0.8410852713178295</v>
+        <v>0.8228346456692913</v>
       </c>
       <c r="M6">
-        <v>0.8217054263565892</v>
+        <v>0.8267716535433071</v>
       </c>
       <c r="N6">
-        <v>0.7868217054263565</v>
+        <v>0.7755905511811023</v>
       </c>
       <c r="O6">
-        <v>0.8150190057166802</v>
+        <v>0.815748031496063</v>
       </c>
       <c r="P6">
-        <v>0.01852546260037686</v>
+        <v>0.02147745149131631</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>547.9120063781738</v>
+        <v>540.0293793678284</v>
       </c>
       <c r="C7">
-        <v>2.956186400336517</v>
+        <v>17.13134270597052</v>
       </c>
       <c r="D7">
-        <v>1.290681600570679</v>
+        <v>1.217085075378418</v>
       </c>
       <c r="E7">
-        <v>0.1563797302772726</v>
+        <v>0.1742176294004533</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -823,28 +823,28 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>0.7992277992277992</v>
+        <v>0.8188976377952756</v>
       </c>
       <c r="K7">
-        <v>0.806949806949807</v>
+        <v>0.8307086614173228</v>
       </c>
       <c r="L7">
-        <v>0.8372093023255814</v>
+        <v>0.8346456692913385</v>
       </c>
       <c r="M7">
-        <v>0.8294573643410853</v>
+        <v>0.8267716535433071</v>
       </c>
       <c r="N7">
-        <v>0.7790697674418605</v>
+        <v>0.7913385826771654</v>
       </c>
       <c r="O7">
-        <v>0.8103828080572267</v>
+        <v>0.8204724409448818</v>
       </c>
       <c r="P7">
-        <v>0.02097725302952645</v>
+        <v>0.01546998638140824</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>141.0061642646789</v>
+        <v>141.7798931598663</v>
       </c>
       <c r="C8">
-        <v>0.8662919836044399</v>
+        <v>5.278243824242297</v>
       </c>
       <c r="D8">
-        <v>1.260430240631103</v>
+        <v>1.166797685623169</v>
       </c>
       <c r="E8">
-        <v>0.1270384612390069</v>
+        <v>0.03615354900427226</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -876,25 +876,25 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>0.806949806949807</v>
+        <v>0.7952755905511811</v>
       </c>
       <c r="K8">
-        <v>0.7915057915057915</v>
+        <v>0.8464566929133859</v>
       </c>
       <c r="L8">
-        <v>0.8255813953488372</v>
+        <v>0.8228346456692913</v>
       </c>
       <c r="M8">
-        <v>0.810077519379845</v>
+        <v>0.8346456692913385</v>
       </c>
       <c r="N8">
-        <v>0.7790697674418605</v>
+        <v>0.7755905511811023</v>
       </c>
       <c r="O8">
-        <v>0.8026368561252284</v>
+        <v>0.8149606299212598</v>
       </c>
       <c r="P8">
-        <v>0.01599828217803002</v>
+        <v>0.02599617955782549</v>
       </c>
       <c r="Q8">
         <v>16</v>
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>276.8826009273529</v>
+        <v>276.9066627502442</v>
       </c>
       <c r="C9">
-        <v>3.001821681647696</v>
+        <v>5.270472245463897</v>
       </c>
       <c r="D9">
-        <v>1.209411239624024</v>
+        <v>1.274365091323852</v>
       </c>
       <c r="E9">
-        <v>0.1838373671589167</v>
+        <v>0.1385967600212947</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -929,28 +929,28 @@
         <v>23</v>
       </c>
       <c r="J9">
-        <v>0.8223938223938224</v>
+        <v>0.8149606299212598</v>
       </c>
       <c r="K9">
-        <v>0.803088803088803</v>
+        <v>0.8385826771653543</v>
       </c>
       <c r="L9">
-        <v>0.8410852713178295</v>
+        <v>0.8228346456692913</v>
       </c>
       <c r="M9">
-        <v>0.8217054263565892</v>
+        <v>0.8267716535433071</v>
       </c>
       <c r="N9">
-        <v>0.7868217054263565</v>
+        <v>0.7755905511811023</v>
       </c>
       <c r="O9">
-        <v>0.8150190057166802</v>
+        <v>0.815748031496063</v>
       </c>
       <c r="P9">
-        <v>0.01852546260037686</v>
+        <v>0.02147745149131631</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>539.8740286350251</v>
+        <v>539.8429197788239</v>
       </c>
       <c r="C10">
-        <v>2.468744574063286</v>
+        <v>13.2064806587692</v>
       </c>
       <c r="D10">
-        <v>1.095422792434692</v>
+        <v>1.157438898086548</v>
       </c>
       <c r="E10">
-        <v>0.08343726857011449</v>
+        <v>0.1619503295068787</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -982,28 +982,28 @@
         <v>24</v>
       </c>
       <c r="J10">
-        <v>0.7992277992277992</v>
+        <v>0.8188976377952756</v>
       </c>
       <c r="K10">
-        <v>0.806949806949807</v>
+        <v>0.8307086614173228</v>
       </c>
       <c r="L10">
-        <v>0.8372093023255814</v>
+        <v>0.8346456692913385</v>
       </c>
       <c r="M10">
-        <v>0.8294573643410853</v>
+        <v>0.8267716535433071</v>
       </c>
       <c r="N10">
-        <v>0.7790697674418605</v>
+        <v>0.7913385826771654</v>
       </c>
       <c r="O10">
-        <v>0.8103828080572267</v>
+        <v>0.8204724409448818</v>
       </c>
       <c r="P10">
-        <v>0.02097725302952645</v>
+        <v>0.01546998638140824</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>227.0111808300018</v>
+        <v>222.2139804363251</v>
       </c>
       <c r="C11">
-        <v>1.558287283479275</v>
+        <v>5.803907672370323</v>
       </c>
       <c r="D11">
-        <v>1.091193723678589</v>
+        <v>1.172681570053101</v>
       </c>
       <c r="E11">
-        <v>0.01291277106736306</v>
+        <v>0.1538461890936856</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1035,25 +1035,25 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>0.8185328185328186</v>
+        <v>0.7795275590551181</v>
       </c>
       <c r="K11">
-        <v>0.8108108108108109</v>
+        <v>0.8622047244094488</v>
       </c>
       <c r="L11">
-        <v>0.8410852713178295</v>
+        <v>0.8267716535433071</v>
       </c>
       <c r="M11">
-        <v>0.8217054263565892</v>
+        <v>0.8346456692913385</v>
       </c>
       <c r="N11">
-        <v>0.7984496124031008</v>
+        <v>0.7992125984251969</v>
       </c>
       <c r="O11">
-        <v>0.8181167878842297</v>
+        <v>0.8204724409448818</v>
       </c>
       <c r="P11">
-        <v>0.01400555412133525</v>
+        <v>0.0286726637102884</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>439.0785820007324</v>
+        <v>440.1088914394379</v>
       </c>
       <c r="C12">
-        <v>1.499514043871377</v>
+        <v>9.614214551980991</v>
       </c>
       <c r="D12">
-        <v>1.147348165512085</v>
+        <v>1.112573146820068</v>
       </c>
       <c r="E12">
-        <v>0.1491444373831406</v>
+        <v>0.06051519180244505</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1088,25 +1088,25 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>0.8223938223938224</v>
+        <v>0.7952755905511811</v>
       </c>
       <c r="K12">
-        <v>0.833976833976834</v>
+        <v>0.8464566929133859</v>
       </c>
       <c r="L12">
-        <v>0.8217054263565892</v>
+        <v>0.8228346456692913</v>
       </c>
       <c r="M12">
-        <v>0.8294573643410853</v>
+        <v>0.8543307086614174</v>
       </c>
       <c r="N12">
-        <v>0.8023255813953488</v>
+        <v>0.7952755905511811</v>
       </c>
       <c r="O12">
-        <v>0.8219718056927359</v>
+        <v>0.8228346456692914</v>
       </c>
       <c r="P12">
-        <v>0.01082938112331298</v>
+        <v>0.02477501216149965</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>847.8787262916564</v>
+        <v>822.7493017196655</v>
       </c>
       <c r="C13">
-        <v>3.52900996623834</v>
+        <v>10.84444382436454</v>
       </c>
       <c r="D13">
-        <v>1.090409564971924</v>
+        <v>1.256966257095337</v>
       </c>
       <c r="E13">
-        <v>0.08538547232695166</v>
+        <v>0.2340034616708041</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1141,25 +1141,25 @@
         <v>27</v>
       </c>
       <c r="J13">
-        <v>0.8146718146718147</v>
+        <v>0.8228346456692913</v>
       </c>
       <c r="K13">
-        <v>0.8262548262548263</v>
+        <v>0.84251968503937</v>
       </c>
       <c r="L13">
-        <v>0.8255813953488372</v>
+        <v>0.8307086614173228</v>
       </c>
       <c r="M13">
-        <v>0.8372093023255814</v>
+        <v>0.8503937007874016</v>
       </c>
       <c r="N13">
-        <v>0.810077519379845</v>
+        <v>0.8070866141732284</v>
       </c>
       <c r="O13">
-        <v>0.8227589715961809</v>
+        <v>0.8307086614173229</v>
       </c>
       <c r="P13">
-        <v>0.009541702901028983</v>
+        <v>0.01514597170210342</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>224.9945813655853</v>
+        <v>224.7535450935364</v>
       </c>
       <c r="C14">
-        <v>2.153369536676768</v>
+        <v>6.192386052488965</v>
       </c>
       <c r="D14">
-        <v>1.134400081634521</v>
+        <v>1.13036322593689</v>
       </c>
       <c r="E14">
-        <v>0.07613856766635879</v>
+        <v>0.08738882792603166</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1194,25 +1194,25 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>0.8185328185328186</v>
+        <v>0.7795275590551181</v>
       </c>
       <c r="K14">
-        <v>0.8108108108108109</v>
+        <v>0.8622047244094488</v>
       </c>
       <c r="L14">
-        <v>0.8410852713178295</v>
+        <v>0.8267716535433071</v>
       </c>
       <c r="M14">
-        <v>0.8217054263565892</v>
+        <v>0.8346456692913385</v>
       </c>
       <c r="N14">
-        <v>0.7984496124031008</v>
+        <v>0.7992125984251969</v>
       </c>
       <c r="O14">
-        <v>0.8181167878842297</v>
+        <v>0.8204724409448818</v>
       </c>
       <c r="P14">
-        <v>0.01400555412133525</v>
+        <v>0.0286726637102884</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>438.6279279232025</v>
+        <v>433.5267005443573</v>
       </c>
       <c r="C15">
-        <v>2.817321730707151</v>
+        <v>6.305521848631011</v>
       </c>
       <c r="D15">
-        <v>1.175688219070435</v>
+        <v>1.131197786331177</v>
       </c>
       <c r="E15">
-        <v>0.1304962707231225</v>
+        <v>0.1349364706848987</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1247,25 +1247,25 @@
         <v>29</v>
       </c>
       <c r="J15">
-        <v>0.8223938223938224</v>
+        <v>0.7952755905511811</v>
       </c>
       <c r="K15">
-        <v>0.833976833976834</v>
+        <v>0.8464566929133859</v>
       </c>
       <c r="L15">
-        <v>0.8217054263565892</v>
+        <v>0.8228346456692913</v>
       </c>
       <c r="M15">
-        <v>0.8294573643410853</v>
+        <v>0.8543307086614174</v>
       </c>
       <c r="N15">
-        <v>0.8023255813953488</v>
+        <v>0.7952755905511811</v>
       </c>
       <c r="O15">
-        <v>0.8219718056927359</v>
+        <v>0.8228346456692914</v>
       </c>
       <c r="P15">
-        <v>0.01082938112331298</v>
+        <v>0.02477501216149965</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>846.2436463356019</v>
+        <v>827.414220905304</v>
       </c>
       <c r="C16">
-        <v>4.067704530985456</v>
+        <v>10.13201319835294</v>
       </c>
       <c r="D16">
-        <v>1.219219303131104</v>
+        <v>1.057899522781372</v>
       </c>
       <c r="E16">
-        <v>0.1553488879565509</v>
+        <v>0.008189434580115632</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1300,25 +1300,25 @@
         <v>30</v>
       </c>
       <c r="J16">
-        <v>0.8146718146718147</v>
+        <v>0.8228346456692913</v>
       </c>
       <c r="K16">
-        <v>0.8262548262548263</v>
+        <v>0.84251968503937</v>
       </c>
       <c r="L16">
-        <v>0.8255813953488372</v>
+        <v>0.8307086614173228</v>
       </c>
       <c r="M16">
-        <v>0.8372093023255814</v>
+        <v>0.8503937007874016</v>
       </c>
       <c r="N16">
-        <v>0.810077519379845</v>
+        <v>0.8070866141732284</v>
       </c>
       <c r="O16">
-        <v>0.8227589715961809</v>
+        <v>0.8307086614173229</v>
       </c>
       <c r="P16">
-        <v>0.009541702901028983</v>
+        <v>0.01514597170210342</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>225.9496893405914</v>
+        <v>224.009560585022</v>
       </c>
       <c r="C17">
-        <v>1.164591439877389</v>
+        <v>5.119082031617996</v>
       </c>
       <c r="D17">
-        <v>1.153833055496216</v>
+        <v>1.188752412796021</v>
       </c>
       <c r="E17">
-        <v>0.1176218022547263</v>
+        <v>0.1391379258364404</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1353,25 +1353,25 @@
         <v>31</v>
       </c>
       <c r="J17">
-        <v>0.8185328185328186</v>
+        <v>0.7795275590551181</v>
       </c>
       <c r="K17">
-        <v>0.8108108108108109</v>
+        <v>0.8622047244094488</v>
       </c>
       <c r="L17">
-        <v>0.8410852713178295</v>
+        <v>0.8267716535433071</v>
       </c>
       <c r="M17">
-        <v>0.8217054263565892</v>
+        <v>0.8346456692913385</v>
       </c>
       <c r="N17">
-        <v>0.7984496124031008</v>
+        <v>0.7992125984251969</v>
       </c>
       <c r="O17">
-        <v>0.8181167878842297</v>
+        <v>0.8204724409448818</v>
       </c>
       <c r="P17">
-        <v>0.01400555412133525</v>
+        <v>0.0286726637102884</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>443.3257448673248</v>
+        <v>434.4916841030121</v>
       </c>
       <c r="C18">
-        <v>5.944875825528253</v>
+        <v>17.43177987004045</v>
       </c>
       <c r="D18">
-        <v>1.163608169555664</v>
+        <v>1.10187087059021</v>
       </c>
       <c r="E18">
-        <v>0.09105545209136019</v>
+        <v>0.1463666496580365</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1406,25 +1406,25 @@
         <v>32</v>
       </c>
       <c r="J18">
-        <v>0.8223938223938224</v>
+        <v>0.7952755905511811</v>
       </c>
       <c r="K18">
-        <v>0.833976833976834</v>
+        <v>0.8464566929133859</v>
       </c>
       <c r="L18">
-        <v>0.8217054263565892</v>
+        <v>0.8228346456692913</v>
       </c>
       <c r="M18">
-        <v>0.8294573643410853</v>
+        <v>0.8543307086614174</v>
       </c>
       <c r="N18">
-        <v>0.8023255813953488</v>
+        <v>0.7952755905511811</v>
       </c>
       <c r="O18">
-        <v>0.8219718056927359</v>
+        <v>0.8228346456692914</v>
       </c>
       <c r="P18">
-        <v>0.01082938112331298</v>
+        <v>0.02477501216149965</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>709.7994366645813</v>
+        <v>662.4481983661651</v>
       </c>
       <c r="C19">
-        <v>31.42703912573048</v>
+        <v>29.88153944648073</v>
       </c>
       <c r="D19">
-        <v>0.7276951789855957</v>
+        <v>0.7587400913238526</v>
       </c>
       <c r="E19">
-        <v>0.1198710942467073</v>
+        <v>0.1393430675021306</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1459,25 +1459,25 @@
         <v>33</v>
       </c>
       <c r="J19">
-        <v>0.8146718146718147</v>
+        <v>0.8228346456692913</v>
       </c>
       <c r="K19">
-        <v>0.8262548262548263</v>
+        <v>0.84251968503937</v>
       </c>
       <c r="L19">
-        <v>0.8255813953488372</v>
+        <v>0.8307086614173228</v>
       </c>
       <c r="M19">
-        <v>0.8372093023255814</v>
+        <v>0.8503937007874016</v>
       </c>
       <c r="N19">
-        <v>0.810077519379845</v>
+        <v>0.8070866141732284</v>
       </c>
       <c r="O19">
-        <v>0.8227589715961809</v>
+        <v>0.8307086614173229</v>
       </c>
       <c r="P19">
-        <v>0.009541702901028983</v>
+        <v>0.01514597170210342</v>
       </c>
       <c r="Q19">
         <v>1</v>
